--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2209.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2209.xlsx
@@ -354,10 +354,10 @@
         <v>1.686122130130327</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.9937870438690252</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2209.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2209.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.069506552984807</v>
+        <v>0.9488581418991089</v>
       </c>
       <c r="B1">
-        <v>1.686122130130327</v>
+        <v>2.170935392379761</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>8.472025871276855</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.741669654846191</v>
       </c>
       <c r="E1">
-        <v>0.9937870438690252</v>
+        <v>1.400412201881409</v>
       </c>
     </row>
   </sheetData>
